--- a/output/1Y_P65_1VAL-D.xlsx
+++ b/output/1Y_P65_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G2" s="1">
-        <v>620.2627</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.146000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1222</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E3" s="1">
+        <v>620.2627</v>
+      </c>
       <c r="F3" s="1">
         <v>576.5251</v>
       </c>
-      <c r="G3" s="1">
-        <v>1196.7878</v>
-      </c>
       <c r="H3" s="1">
-        <v>20650.9325</v>
+        <v>10702.8197</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7114</v>
+        <v>10702.8197</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1222</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20650.9325</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0352</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E4" s="1">
+        <v>1196.7878</v>
+      </c>
       <c r="F4" s="1">
         <v>559.3810999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>1756.1689</v>
-      </c>
       <c r="H4" s="1">
-        <v>31232.0589</v>
+        <v>21283.9135</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0826</v>
+        <v>21283.9135</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.7114</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31232.0589</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.019</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E5" s="1">
+        <v>1756.1689</v>
+      </c>
       <c r="F5" s="1">
         <v>559.3717</v>
       </c>
-      <c r="G5" s="1">
-        <v>2315.5406</v>
-      </c>
       <c r="H5" s="1">
-        <v>41180.732</v>
+        <v>31232.5857</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2746</v>
+        <v>31232.5857</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0826</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41180.732</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0012</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E6" s="1">
+        <v>2315.5406</v>
+      </c>
       <c r="F6" s="1">
         <v>549.8312</v>
       </c>
-      <c r="G6" s="1">
-        <v>2865.3718</v>
-      </c>
       <c r="H6" s="1">
-        <v>51843.4587</v>
+        <v>41895.3078</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4497</v>
+        <v>41895.3078</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2746</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51843.4587</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0129</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E7" s="1">
+        <v>2865.3718</v>
+      </c>
       <c r="F7" s="1">
         <v>567.756</v>
       </c>
-      <c r="G7" s="1">
-        <v>3433.1278</v>
-      </c>
       <c r="H7" s="1">
-        <v>60154.5789</v>
+        <v>50206.4718</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4768</v>
+        <v>50206.4718</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4497</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60154.5789</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0273</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.806</v>
       </c>
+      <c r="E8" s="1">
+        <v>3433.1278</v>
+      </c>
       <c r="F8" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G8" s="1">
-        <v>3994.7363</v>
-      </c>
       <c r="H8" s="1">
-        <v>70761.5597</v>
+        <v>60813.3962</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5231</v>
+        <v>60813.3962</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4768</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70761.5597</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E9" s="1">
+        <v>3994.7363</v>
+      </c>
       <c r="F9" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>4539.6241</v>
-      </c>
       <c r="H9" s="1">
-        <v>82880.82550000001</v>
+        <v>72932.6989</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6226</v>
+        <v>72932.6989</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5231</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82880.82550000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0262</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E10" s="1">
+        <v>4539.6241</v>
+      </c>
       <c r="F10" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G10" s="1">
-        <v>5101.823</v>
-      </c>
       <c r="H10" s="1">
-        <v>90277.2681</v>
+        <v>80329.10279999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6408</v>
+        <v>80329.10279999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6226</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90277.2681</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.028</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E11" s="1">
+        <v>5101.823</v>
+      </c>
       <c r="F11" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G11" s="1">
-        <v>5653.4893</v>
-      </c>
       <c r="H11" s="1">
-        <v>101948.8072</v>
+        <v>92000.6639</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6882</v>
+        <v>92000.6639</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6408</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101948.8072</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0167</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E12" s="1">
+        <v>5653.4893</v>
+      </c>
       <c r="F12" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G12" s="1">
-        <v>6212.7202</v>
-      </c>
       <c r="H12" s="1">
-        <v>110518.0805</v>
+        <v>100569.9212</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7056</v>
+        <v>100569.9212</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6882</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110518.0805</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,38 +1276,38 @@
       <c r="D13" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E13" s="1">
+        <v>6212.7202</v>
+      </c>
       <c r="F13" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G13" s="1">
-        <v>6771.6386</v>
-      </c>
       <c r="H13" s="1">
-        <v>120528.396</v>
+        <v>110580.2077</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.721</v>
+        <v>110580.2077</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7056</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120528.396</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0001</v>
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E14" s="1">
+        <v>6771.6386</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6771.6386</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6212.7202</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109496.0423</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.721</v>
+        <v>109496.0423</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2442</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.5</v>
       </c>
-      <c r="L14" s="1">
-        <v>3047.2374</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>112543.2797</v>
+        <v>2795.7241</v>
       </c>
       <c r="O14" s="1">
-        <v>112543.2797</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112543.2797</v>
+        <v>103254.168</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1378</v>
+        <v>-0.0919</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.1222</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.2627</v>
       </c>
       <c r="G2" s="1">
-        <v>620.2627</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1222</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.3453</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>620.2627</v>
       </c>
       <c r="F3" s="1">
         <v>538.8013999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1159.0642</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10702.8197</v>
       </c>
       <c r="I3" s="1">
-        <v>19345.6724</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.6908</v>
+        <v>10702.8197</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9345.672399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0673</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9345.672399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>654.3276</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20654.3276</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0354</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.8769</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1159.0642</v>
       </c>
       <c r="F4" s="1">
         <v>527.8264</v>
       </c>
       <c r="G4" s="1">
-        <v>1686.8906</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20613.029</v>
       </c>
       <c r="I4" s="1">
-        <v>28781.5729</v>
+        <v>654.3276</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0619</v>
+        <v>21267.3566</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18781.5729</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.2041</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9435.9005</v>
       </c>
-      <c r="O4" s="1">
-        <v>1218.4271</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31218.4271</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0184</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.8772</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1686.8906</v>
       </c>
       <c r="F5" s="1">
         <v>562.2589</v>
       </c>
       <c r="G5" s="1">
-        <v>2249.1495</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30000.5061</v>
       </c>
       <c r="I5" s="1">
-        <v>38833.1882</v>
+        <v>1218.4271</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2657</v>
+        <v>31218.9332</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28833.1882</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0925</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10051.6153</v>
       </c>
-      <c r="O5" s="1">
-        <v>1166.8118</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41166.8118</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0013</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.1874</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2249.1495</v>
       </c>
       <c r="F6" s="1">
         <v>514.3348999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2763.4844</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40694.0875</v>
       </c>
       <c r="I6" s="1">
-        <v>48187.6025</v>
+        <v>1166.8118</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4373</v>
+        <v>41860.8993</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38187.6025</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.9787</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9354.414199999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1812.3975</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51812.3975</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0126</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.6132</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2763.4844</v>
       </c>
       <c r="F7" s="1">
         <v>660.8213</v>
       </c>
       <c r="G7" s="1">
-        <v>3424.3057</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48421.2213</v>
       </c>
       <c r="I7" s="1">
-        <v>59826.7802</v>
+        <v>1812.3975</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4712</v>
+        <v>50233.6189</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49826.7802</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0304</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11639.1777</v>
       </c>
-      <c r="O7" s="1">
-        <v>173.2198</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60173.2198</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0265</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.806</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3424.3057</v>
       </c>
       <c r="F8" s="1">
         <v>527.4378</v>
       </c>
       <c r="G8" s="1">
-        <v>3951.7436</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60657.1243</v>
       </c>
       <c r="I8" s="1">
-        <v>69218.33839999999</v>
+        <v>173.2198</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5159</v>
+        <v>60830.3441</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59218.3384</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2935</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9391.558199999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>781.6616</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70781.66160000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.3524</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3951.7436</v>
       </c>
       <c r="F9" s="1">
         <v>430.0894</v>
       </c>
       <c r="G9" s="1">
-        <v>4381.8329</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72147.7726</v>
       </c>
       <c r="I9" s="1">
-        <v>77111.51029999999</v>
+        <v>781.6616</v>
       </c>
       <c r="J9" s="1">
-        <v>17.598</v>
+        <v>72929.4342</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67111.51029999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9828</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7893.1719</v>
       </c>
-      <c r="O9" s="1">
-        <v>2888.4897</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82888.48970000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0261</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.7873</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4381.8329</v>
       </c>
       <c r="F10" s="1">
         <v>704.3209000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5086.1538</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>77536.97169999999</v>
       </c>
       <c r="I10" s="1">
-        <v>89639.477</v>
+        <v>2888.4897</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6242</v>
+        <v>80425.4614</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79639.477</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.1749</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12527.9667</v>
       </c>
-      <c r="O10" s="1">
-        <v>360.523</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90360.523</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0272</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.1269</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5086.1538</v>
       </c>
       <c r="F11" s="1">
         <v>459.266</v>
       </c>
       <c r="G11" s="1">
-        <v>5545.4198</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91718.10279999999</v>
       </c>
       <c r="I11" s="1">
-        <v>97964.54519999999</v>
+        <v>360.523</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6658</v>
+        <v>92078.62579999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87964.54519999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.2949</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8325.0682</v>
       </c>
-      <c r="O11" s="1">
-        <v>2035.4548</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102035.4548</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0167</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.8817</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5545.4198</v>
       </c>
       <c r="F12" s="1">
         <v>638.1768</v>
       </c>
       <c r="G12" s="1">
-        <v>6183.5966</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>98647.4721</v>
       </c>
       <c r="I12" s="1">
-        <v>109376.2321</v>
+        <v>2035.4548</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6881</v>
+        <v>100682.9269</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99376.23209999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.9204</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11411.6869</v>
       </c>
-      <c r="O12" s="1">
-        <v>623.7679000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110623.7679</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0126</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.8917</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6183.5966</v>
       </c>
       <c r="F13" s="1">
         <v>558.3552</v>
       </c>
       <c r="G13" s="1">
-        <v>6741.9518</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110061.836</v>
       </c>
       <c r="I13" s="1">
-        <v>119366.1556</v>
+        <v>623.7679000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>17.705</v>
+        <v>110685.6039</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109366.1556</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6865</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9989.9236</v>
       </c>
-      <c r="O13" s="1">
-        <v>633.8444</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120633.8444</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.2541</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6741.9518</v>
       </c>
       <c r="F14" s="1">
         <v>-6741.9518</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109016.0121</v>
       </c>
       <c r="I14" s="1">
-        <v>119366.1556</v>
+        <v>633.8444</v>
       </c>
       <c r="J14" s="1">
-        <v>17.705</v>
+        <v>109649.8565</v>
       </c>
       <c r="K14" s="1">
+        <v>109366.1556</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2217</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.5</v>
       </c>
-      <c r="L14" s="1">
-        <v>3033.8783</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>112049.8904</v>
+        <v>2782.6185</v>
       </c>
       <c r="O14" s="1">
-        <v>112683.7348</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112683.7348</v>
+        <v>111798.6306</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1374</v>
+        <v>-0.0914</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.1222</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.2627</v>
       </c>
       <c r="G2" s="1">
-        <v>620.2627</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1222</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.3453</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>620.2627</v>
       </c>
       <c r="F3" s="1">
         <v>541.6991</v>
       </c>
       <c r="G3" s="1">
-        <v>1161.9618</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10702.8197</v>
       </c>
       <c r="I3" s="1">
-        <v>19395.9332</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.6924</v>
+        <v>10702.8197</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9395.933199999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.1483</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9395.933199999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>604.0667999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20654.0668</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0354</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.8769</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1161.9618</v>
       </c>
       <c r="F4" s="1">
         <v>533.3773</v>
       </c>
       <c r="G4" s="1">
-        <v>1695.3391</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20664.5616</v>
       </c>
       <c r="I4" s="1">
-        <v>28931.0657</v>
+        <v>604.0667999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0651</v>
+        <v>21268.6284</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18931.0657</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.2923</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9535.1325</v>
       </c>
-      <c r="O4" s="1">
-        <v>1068.9343</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31219.1843</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0184</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.8772</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1695.3391</v>
       </c>
       <c r="F5" s="1">
         <v>570.7353000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2266.0745</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30150.7586</v>
       </c>
       <c r="I5" s="1">
-        <v>39134.2155</v>
+        <v>1068.9343</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2696</v>
+        <v>31219.6929</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29134.2155</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1849</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10203.1498</v>
       </c>
-      <c r="O5" s="1">
-        <v>865.7845</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41166.7858</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0013</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.1874</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2266.0745</v>
       </c>
       <c r="F6" s="1">
         <v>525.1833</v>
       </c>
       <c r="G6" s="1">
-        <v>2791.2578</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41000.3118</v>
       </c>
       <c r="I6" s="1">
-        <v>48685.9347</v>
+        <v>865.7845</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4423</v>
+        <v>41866.0963</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38685.9347</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0718</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9551.7192</v>
       </c>
-      <c r="O6" s="1">
-        <v>1314.0653</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51816.5716</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0127</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.6132</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2791.2578</v>
       </c>
       <c r="F7" s="1">
         <v>642.3628</v>
       </c>
       <c r="G7" s="1">
-        <v>3433.6206</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60163.214</v>
+        <v>48907.8607</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1314.0653</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4743</v>
+        <v>50221.926</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9131</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11314.0653</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60163.214</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0267</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.806</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3433.6206</v>
       </c>
       <c r="F8" s="1">
         <v>561.6084</v>
       </c>
       <c r="G8" s="1">
-        <v>3995.2291</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70770.28939999999</v>
+        <v>60822.1258</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5209</v>
+        <v>60822.1258</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4743</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70770.28939999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.3524</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3995.2291</v>
       </c>
       <c r="F9" s="1">
         <v>464.0575</v>
       </c>
       <c r="G9" s="1">
-        <v>4459.2866</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>72941.6964</v>
       </c>
       <c r="I9" s="1">
-        <v>78516.5698</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6074</v>
+        <v>72941.6964</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68516.5698</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1496</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8516.569799999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>1483.4302</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82897.5181</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0263</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.7873</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4459.2866</v>
       </c>
       <c r="F10" s="1">
         <v>645.5972</v>
       </c>
       <c r="G10" s="1">
-        <v>5104.8838</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>90331.429</v>
+        <v>78907.52280000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1483.4302</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6302</v>
+        <v>80390.9531</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9401</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11483.4302</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90331.429</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0276</v>
+        <v>-0.0308</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.1269</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5104.8838</v>
       </c>
       <c r="F11" s="1">
         <v>551.6663</v>
       </c>
       <c r="G11" s="1">
-        <v>5656.5501</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102004.0021</v>
+        <v>92055.8588</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6786</v>
+        <v>92055.8588</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6302</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102004.0021</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0167</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.8817</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5656.5501</v>
       </c>
       <c r="F12" s="1">
         <v>559.2309</v>
       </c>
       <c r="G12" s="1">
-        <v>6215.781</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>110572.5289</v>
+        <v>100624.3696</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6969</v>
+        <v>100624.3696</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6786</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110572.5289</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,40 +2807,40 @@
         <v>17.8917</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6215.781</v>
       </c>
       <c r="F13" s="1">
         <v>558.9184</v>
       </c>
       <c r="G13" s="1">
-        <v>6774.6994</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>120582.8749</v>
+        <v>110634.6867</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.713</v>
+        <v>110634.6867</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6969</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120582.8749</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0001</v>
@@ -2875,7 +2860,7 @@
         <v>16.2541</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6774.6994</v>
       </c>
       <c r="F14" s="1">
         <v>-6774.6994</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109545.5346</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.713</v>
+        <v>109545.5346</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2369</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.5</v>
       </c>
-      <c r="L14" s="1">
-        <v>3048.6147</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>112594.1494</v>
+        <v>2797.1015</v>
       </c>
       <c r="O14" s="1">
-        <v>112594.1494</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112594.1494</v>
+        <v>112342.6361</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1378</v>
+        <v>-0.0919</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.1222</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.2627</v>
       </c>
       <c r="G2" s="1">
-        <v>620.2627</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1222</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.3453</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>620.2627</v>
       </c>
       <c r="F3" s="1">
         <v>544.5967000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1164.8595</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10702.8197</v>
       </c>
       <c r="I3" s="1">
-        <v>19446.194</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.694</v>
+        <v>10702.8197</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9446.194</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2293</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9446.194</v>
       </c>
-      <c r="O3" s="1">
-        <v>553.806</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20653.806</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0354</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.8769</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1164.8595</v>
       </c>
       <c r="F4" s="1">
         <v>538.9563000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1703.8157</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20716.0942</v>
       </c>
       <c r="I4" s="1">
-        <v>29081.0611</v>
+        <v>553.806</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0682</v>
+        <v>21269.9002</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19081.0611</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.3806</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9634.867099999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>918.9389</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31219.9389</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.8772</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1703.8157</v>
       </c>
       <c r="F5" s="1">
         <v>579.2965</v>
       </c>
       <c r="G5" s="1">
-        <v>2283.1123</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30301.5111</v>
       </c>
       <c r="I5" s="1">
-        <v>39437.2607</v>
+        <v>918.9389</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2735</v>
+        <v>31220.4501</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29437.2607</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.2773</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10356.1996</v>
       </c>
-      <c r="O5" s="1">
-        <v>562.7393</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41166.7493</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0013</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.1874</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2283.1123</v>
       </c>
       <c r="F6" s="1">
         <v>536.1973</v>
       </c>
       <c r="G6" s="1">
-        <v>2819.3096</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41308.5784</v>
       </c>
       <c r="I6" s="1">
-        <v>49189.2958</v>
+        <v>562.7393</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4473</v>
+        <v>41871.3177</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39189.2958</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1649</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9752.035099999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>810.7042</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51820.7543</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0128</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.6132</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2819.3096</v>
       </c>
       <c r="F7" s="1">
         <v>613.7842000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3433.0938</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60153.9829</v>
+        <v>49399.3785</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>810.7042</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4769</v>
+        <v>50210.0828</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7348</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10810.7042</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60153.9829</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.027</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.806</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3433.0938</v>
       </c>
       <c r="F8" s="1">
         <v>561.6084</v>
       </c>
       <c r="G8" s="1">
-        <v>3994.7022</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70760.9571</v>
+        <v>60812.7936</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5232</v>
+        <v>60812.7936</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4769</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70760.9571</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.3524</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3994.7022</v>
       </c>
       <c r="F9" s="1">
         <v>543.6008</v>
       </c>
       <c r="G9" s="1">
-        <v>4538.303</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72932.0778</v>
       </c>
       <c r="I9" s="1">
-        <v>79976.3786</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6225</v>
+        <v>72932.0778</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69976.3786</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5173</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9976.3786</v>
       </c>
-      <c r="O9" s="1">
-        <v>23.6214</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82880.327</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0262</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.7873</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4538.303</v>
       </c>
       <c r="F10" s="1">
         <v>563.5269</v>
       </c>
       <c r="G10" s="1">
-        <v>5101.8299</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90277.3897</v>
+        <v>80305.7255</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>23.6214</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6407</v>
+        <v>80329.3469</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6277</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10023.6214</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90277.3897</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.028</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.1269</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5101.8299</v>
       </c>
       <c r="F11" s="1">
         <v>551.6663</v>
       </c>
       <c r="G11" s="1">
-        <v>5653.4962</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101948.9312</v>
+        <v>92000.7879</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6882</v>
+        <v>92000.7879</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6407</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101948.9312</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0167</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.8817</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5653.4962</v>
       </c>
       <c r="F12" s="1">
         <v>559.2309</v>
       </c>
       <c r="G12" s="1">
-        <v>6212.7271</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>110518.2028</v>
+        <v>100570.0435</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7056</v>
+        <v>100570.0435</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6882</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110518.2028</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,40 +3575,40 @@
         <v>17.8917</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6212.7271</v>
       </c>
       <c r="F13" s="1">
         <v>558.9184</v>
       </c>
       <c r="G13" s="1">
-        <v>6771.6455</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120528.5183</v>
+        <v>110580.3301</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.721</v>
+        <v>110580.3301</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7056</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120528.5183</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0001</v>
@@ -3649,7 +3628,7 @@
         <v>16.2541</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6771.6455</v>
       </c>
       <c r="F14" s="1">
         <v>-6771.6455</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109496.1535</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.721</v>
+        <v>109496.1535</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2442</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.5</v>
       </c>
-      <c r="L14" s="1">
-        <v>3047.2405</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>112543.394</v>
+        <v>2795.7272</v>
       </c>
       <c r="O14" s="1">
-        <v>112543.394</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112543.394</v>
+        <v>112291.8807</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1378</v>
+        <v>-0.0919</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.1222</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.2627</v>
       </c>
       <c r="G2" s="1">
-        <v>620.2627</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1222</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.3453</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>620.2627</v>
       </c>
       <c r="F3" s="1">
         <v>547.4944</v>
       </c>
       <c r="G3" s="1">
-        <v>1167.7572</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10702.8197</v>
       </c>
       <c r="I3" s="1">
-        <v>19496.4548</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.6956</v>
+        <v>10702.8197</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9496.4548</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3104</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9496.4548</v>
       </c>
-      <c r="O3" s="1">
-        <v>503.5452</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20653.5452</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0354</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.8769</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1167.7572</v>
       </c>
       <c r="F4" s="1">
         <v>544.5633</v>
       </c>
       <c r="G4" s="1">
-        <v>1712.3205</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20767.6268</v>
       </c>
       <c r="I4" s="1">
-        <v>29231.559</v>
+        <v>503.5452</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0713</v>
+        <v>21271.172</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19231.559</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.4688</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9735.104300000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>768.441</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31220.691</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.8772</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1712.3205</v>
       </c>
       <c r="F5" s="1">
         <v>587.9429</v>
       </c>
       <c r="G5" s="1">
-        <v>2300.2634</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30452.7637</v>
       </c>
       <c r="I5" s="1">
-        <v>39742.3314</v>
+        <v>768.441</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2773</v>
+        <v>31221.2047</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29742.3314</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3696</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10510.7724</v>
       </c>
-      <c r="O5" s="1">
-        <v>257.6686</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41166.7023</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0013</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.1874</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2300.2634</v>
       </c>
       <c r="F6" s="1">
         <v>547.3785</v>
       </c>
       <c r="G6" s="1">
-        <v>2847.6419</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41618.895</v>
       </c>
       <c r="I6" s="1">
-        <v>49697.7234</v>
+        <v>257.6686</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4522</v>
+        <v>41876.5636</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39697.7234</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2579</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9955.392</v>
       </c>
-      <c r="O6" s="1">
-        <v>302.2766</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51824.9458</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0129</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.6132</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2847.6419</v>
       </c>
       <c r="F7" s="1">
         <v>584.9179</v>
       </c>
       <c r="G7" s="1">
-        <v>3432.5598</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60144.6265</v>
+        <v>49895.8115</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>302.2766</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4797</v>
+        <v>50198.088</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.5584</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10302.2766</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60144.6265</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0272</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.806</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3432.5598</v>
       </c>
       <c r="F8" s="1">
         <v>561.6084</v>
       </c>
       <c r="G8" s="1">
-        <v>3994.1683</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70751.49830000001</v>
+        <v>60803.3347</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5256</v>
+        <v>60803.3347</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4797</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70751.49830000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.3524</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3994.1683</v>
       </c>
       <c r="F9" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4539.0561</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82870.45540000001</v>
+        <v>72922.3287</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6248</v>
+        <v>72922.3287</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5256</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82870.45540000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0262</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.7873</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4539.0561</v>
       </c>
       <c r="F10" s="1">
         <v>562.1989</v>
       </c>
       <c r="G10" s="1">
-        <v>5101.255</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90267.2172</v>
+        <v>80319.052</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6427</v>
+        <v>80319.052</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6248</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90267.2172</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.028</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.1269</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5101.255</v>
       </c>
       <c r="F11" s="1">
         <v>551.6663</v>
       </c>
       <c r="G11" s="1">
-        <v>5652.9213</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101938.5645</v>
+        <v>91990.4212</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.69</v>
+        <v>91990.4212</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6427</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101938.5645</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0167</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.8817</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5652.9213</v>
       </c>
       <c r="F12" s="1">
         <v>559.2309</v>
       </c>
       <c r="G12" s="1">
-        <v>6212.1522</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>110507.9763</v>
+        <v>100559.817</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7072</v>
+        <v>100559.817</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.69</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110507.9763</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,40 +4343,40 @@
         <v>17.8917</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6212.1522</v>
       </c>
       <c r="F13" s="1">
         <v>558.9184</v>
       </c>
       <c r="G13" s="1">
-        <v>6771.0706</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>120518.2861</v>
+        <v>110570.0978</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7225</v>
+        <v>110570.0978</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7072</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120518.2861</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0001</v>
@@ -4423,7 +4396,7 @@
         <v>16.2541</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6771.0706</v>
       </c>
       <c r="F14" s="1">
         <v>-6771.0706</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109486.8578</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7225</v>
+        <v>109486.8578</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2456</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.5</v>
       </c>
-      <c r="L14" s="1">
-        <v>3046.9818</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>112533.8396</v>
+        <v>2795.4685</v>
       </c>
       <c r="O14" s="1">
-        <v>112533.8396</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112533.8396</v>
+        <v>112282.3264</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1378</v>
+        <v>-0.0919</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.2103</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.721</v>
+        <v>16.2442</v>
       </c>
       <c r="D3" s="1">
-        <v>17.705</v>
+        <v>16.2217</v>
       </c>
       <c r="E3" s="1">
-        <v>17.713</v>
+        <v>16.2369</v>
       </c>
       <c r="F3" s="1">
-        <v>17.721</v>
+        <v>16.2442</v>
       </c>
       <c r="G3" s="1">
-        <v>17.7225</v>
+        <v>16.2456</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0178</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.08840000000000001</v>
+        <v>0.0015</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0871</v>
+        <v>0.0027</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.08790000000000001</v>
+        <v>0.0017</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0886</v>
+        <v>0.0011</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0887</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1375</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1511</v>
+        <v>0.1342</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1505</v>
+        <v>0.133</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1509</v>
+        <v>0.1337</v>
       </c>
       <c r="F5" s="3">
-        <v>0.151</v>
+        <v>0.1339</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1511</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.0187</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.7192</v>
+        <v>-0.1402</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.7136</v>
+        <v>-0.1322</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.7171999999999999</v>
+        <v>-0.1391</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.7211</v>
+        <v>-0.1439</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.7218</v>
+        <v>-0.1448</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1127</v>
+        <v>-0.2469</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1123</v>
+        <v>-0.1161</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1126</v>
+        <v>-0.1164</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.113</v>
+        <v>-0.1168</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.113</v>
+        <v>-0.1168</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3047.2374</v>
+        <v>2795.7241</v>
       </c>
       <c r="D8" s="1">
-        <v>3033.8783</v>
+        <v>2782.6185</v>
       </c>
       <c r="E8" s="1">
-        <v>3048.6147</v>
+        <v>2797.1015</v>
       </c>
       <c r="F8" s="1">
-        <v>3047.2405</v>
+        <v>2795.7272</v>
       </c>
       <c r="G8" s="1">
-        <v>3046.9818</v>
+        <v>2795.4685</v>
       </c>
     </row>
   </sheetData>
